--- a/biology/Zoologie/Atelopus_lynchi/Atelopus_lynchi.xlsx
+++ b/biology/Zoologie/Atelopus_lynchi/Atelopus_lynchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus lynchi est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus lynchi est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Carchi dans le nord de l'Équateur[1],[2]. Elle se rencontre entre 800 et 1 410 m d'altitude sur le versant Pacifique de la cordillère Occidentale.
-Sa présence est incertaine en Colombie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Carchi dans le nord de l'Équateur,. Elle se rencontre entre 800 et 1 410 m d'altitude sur le versant Pacifique de la cordillère Occidentale.
+Sa présence est incertaine en Colombie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus lynchi mesure de 34,5 à 40,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus lynchi mesure de 34,5 à 40,8 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Douglas Lynch.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cannatella, 1981 : A New Atelopus from Ecuador and Colombia. Journal of Herpetology, vol. 15, no 2, p. 133-138.</t>
         </is>
